--- a/UnitTests/bootstrapit_results/UnitTestResults.xlsx
+++ b/UnitTests/bootstrapit_results/UnitTestResults.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25.592485</v>
+        <v>25.59242</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.921694</v>
+        <v>26.91929</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28.16751333333333</v>
+        <v>28.16921333333333</v>
       </c>
     </row>
   </sheetData>
